--- a/codigos.xlsx
+++ b/codigos.xlsx
@@ -341,10 +341,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -367,6 +367,11 @@
         <v>77930080144387</v>
       </c>
     </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>8429420152120</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/codigos.xlsx
+++ b/codigos.xlsx
@@ -344,7 +344,7 @@
   <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -364,7 +364,7 @@
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>77930080144387</v>
+        <v>7509546692197</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">

--- a/codigos.xlsx
+++ b/codigos.xlsx
@@ -16,6 +16,23 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+  <si>
+    <t>ESPADOL DETTOL ALOE VERA 80 GR JAB</t>
+  </si>
+  <si>
+    <t>ISSUE TRATAMIENTO CAPILAR BRILLO EXTREMO X 150</t>
+  </si>
+  <si>
+    <t>COLGATE HERBAL C/MINERALES 90GR DEN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UREADIN MANOS CREAM PLUS CRE 50 ML </t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -341,10 +358,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -352,24 +369,36 @@
     <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2">
         <v>7798339190105</v>
       </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>7793008017387</v>
       </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>7509546692197</v>
       </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>8429420152120</v>
+      </c>
+      <c r="B4" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/codigos.xlsx
+++ b/codigos.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="100">
   <si>
     <t>ESPADOL DETTOL ALOE VERA 80 GR JAB</t>
   </si>
@@ -31,6 +31,294 @@
   </si>
   <si>
     <t xml:space="preserve">UREADIN MANOS CREAM PLUS CRE 50 ML </t>
+  </si>
+  <si>
+    <t>TRESEMME CAPILAR GEL TEXTURIZADOR DEFINE X  200GR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DEPIMIEL CERA EN LATA VEGETAL CON ESTUCHE 200 grs. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DEPIMIEL CREMA DEPILATORIA PARA EL ROSTRO CLÁSICA 40 grs. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DEPIMIEL CERA EN LATA NATURAL CON ESTUCHE 200 grs. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DEPIMIEL CERA EN BANDA PARA EL ROSTRO CLÁSICA 12 Unid. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DEPIMIEL CERA EN BANDA PARA EL ROSTRO  SENSITIVE 12 UNID. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DEPIMIEL CREMA DEPILATORIA PARA EL ROSTRO (A+B) SENSITIVE  45 GRS. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DEPIMIEL CREMA DEPILATORIA  PARA EL CUERPO SENSITIVE 120 GRS. </t>
+  </si>
+  <si>
+    <t>HENO DE PRAVIA JBN TRAD 150 GR ENV.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HENO DE PRAVIA COL X250 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">HENO DE PRAVIA COL X500 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SHAKIRA KISS BY SHAKIRA X80V EDT </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TUCCI FRAG INCANTO ETERNO FEM X100V EDT </t>
+  </si>
+  <si>
+    <t>AB PERF KING OF SEDUCTION ABSOLUTE MEN EDT X 50V</t>
+  </si>
+  <si>
+    <t>TUCCI FRAG INCANTO DI FIORE FEM X100V EDT</t>
+  </si>
+  <si>
+    <t>BUCAL TAC CERAS PARA ORTODONCIA Barras x 6 s/sab.20%grat</t>
+  </si>
+  <si>
+    <t>BUCAL TAC PALILLOS INTERDENTALES Periostick soft pal x30u</t>
+  </si>
+  <si>
+    <t>BUCAL GUARD Protector bucal x 1u</t>
+  </si>
+  <si>
+    <t>BUCAL TAC CEPILLOS DENTALES Evolucion 4.1 suave x 1</t>
+  </si>
+  <si>
+    <t>BUCAL BOX CAJAS PARA ORTODONCIA Croma c/aroma x 1</t>
+  </si>
+  <si>
+    <t>MINAMINT DESODORANTE BUCAL SPRAY Spearmint desod.buc.x9ml</t>
+  </si>
+  <si>
+    <t>ISDIN PROT SOLAR FUSION WATE LIGHT F50 X 50ML</t>
+  </si>
+  <si>
+    <t>ISDIN FOTOP FUS WATER COLOR F50 CRE X 50 ML</t>
+  </si>
+  <si>
+    <t>ISDIN FOTOPROTECTOR FUS WATER MAGIC F50 FLUIDO X 50ML</t>
+  </si>
+  <si>
+    <t>ISDIN FOTOPROT PEDIATRI F50 GEL CREMA X 250ML</t>
+  </si>
+  <si>
+    <t>ISDIN FOTO FUS WATER OILFREE F50 50M CRE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OB ORIGINAL MEDIO 8 TAM </t>
+  </si>
+  <si>
+    <t xml:space="preserve">OB ORIGINAL SUPER 8 TAM </t>
+  </si>
+  <si>
+    <t>SIEMPRE L ESPECIAL CON ALAS 8 TOA HIG</t>
+  </si>
+  <si>
+    <t>SIEMPRE L NOCT TERMOC C/ALAS 8UN TOA HIG</t>
+  </si>
+  <si>
+    <t>SIEMPRE L ULTRAFINA TERMOC C/A 8 TOA HIG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OB ORIGINAL SUPER 16 TAM </t>
+  </si>
+  <si>
+    <t xml:space="preserve">OB ORIGINAL MINI 8 TAM </t>
+  </si>
+  <si>
+    <t>JOHNSON BABY CAB CLARO C/MANZ 200ML SHA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OB ORIGINAL MEDIO 16 TAM </t>
+  </si>
+  <si>
+    <t>DRAMAMINE comp.x 12</t>
+  </si>
+  <si>
+    <t>LISTERINE COOLMINT 250 ML ENJ BUC</t>
+  </si>
+  <si>
+    <t>SIEMPRE L ESPECIAL ULTRAFINA 8 TOA HIG</t>
+  </si>
+  <si>
+    <t>DRAMAMINE comp.x 24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JOHNSON BABY 100 ML ACE </t>
+  </si>
+  <si>
+    <t>CAREFREE PROTEC TODOS LOS DIAS COMPACT X 20</t>
+  </si>
+  <si>
+    <t>SIEMPRE L ESPECIAL CON ALAS 16 TOA HIG</t>
+  </si>
+  <si>
+    <t>SIEMPRE L TANGA SUA TERMOC C/A 8 TOA HIG</t>
+  </si>
+  <si>
+    <t>NEUTROGENA MAKE UP REMOVER 25 UN TOA DES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JOHNSON BABY 200 ML ACE </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAREFREE PROT DIARIOS LARGOS X 20 </t>
+  </si>
+  <si>
+    <t>NEUTROGENA DEEP CLEAN LIMPIAD 150 ML GEL</t>
+  </si>
+  <si>
+    <t>CAREFREE BRISA TANGA SIN PERF 20 PRO DIA</t>
+  </si>
+  <si>
+    <t>NEUTROGENA HYDROBOOST AG MIC BIPHASIC 200 LOC</t>
+  </si>
+  <si>
+    <t>JOHNSON BABY MANZ 200 ML ACO</t>
+  </si>
+  <si>
+    <t>PRESTOBARBA AFE 3 X1 MAQ</t>
+  </si>
+  <si>
+    <t>VICK VAPORUB lata x 12 g</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GILLETTE AFE SUPER THIN X5 </t>
+  </si>
+  <si>
+    <t>PRESTOBARBA DEP FEM 3 MUJER X 2 MAQ</t>
+  </si>
+  <si>
+    <t>PRESTOBARBA AFE 3 HOMBRE X2 MAQ</t>
+  </si>
+  <si>
+    <t>ALWAYS TOA HIG PROTEC PLUS SECA X 8 U  DISC</t>
+  </si>
+  <si>
+    <t>PAMPERS PAÑ BEBE CONFORT SEC XGDE 08 PADS</t>
+  </si>
+  <si>
+    <t>PRESTOBARBA AFE 3 SENSECARE X2 MAQ</t>
+  </si>
+  <si>
+    <t>GILLETTE AFE MACH3 CARTUCHO X 2 HOJ</t>
+  </si>
+  <si>
+    <t>GILLETTE AFE MACH3 SENSITIVE CART X2 HOJ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PAMPERS PAÑ BEBE BABYSAN XXG X 8 </t>
+  </si>
+  <si>
+    <t>ALWAYS TOA HIG PROTEC PLUS SUAVE X 8 U</t>
+  </si>
+  <si>
+    <t>GILLETTE DEP FEM VENUS SPA CARTUCHOS X2 MAQ AFE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PRESTOBARBA AFE 3 ICE X2 MAQ </t>
+  </si>
+  <si>
+    <t>GILLETTE DEP FEM SIMPLY VENUS X2 MAQ</t>
+  </si>
+  <si>
+    <t>ORAL B CEP DEN ULTRA SUAVE 35 2X1</t>
+  </si>
+  <si>
+    <t>FOAMY AFE PIEL SENSIBLE 175 GR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALWAYS TOA HIG MAXI PROT SECA X 8 U </t>
+  </si>
+  <si>
+    <t>ALWAYS TOA HIG NOCHES TRANQ SUAVE X 8 U</t>
+  </si>
+  <si>
+    <t>GILLETTE AFE MACH3 SENSITIVE CART X4 HOJ</t>
+  </si>
+  <si>
+    <t>ALWAYS TOA HIG ACT ULT DIA C/ALAS X 8 U</t>
+  </si>
+  <si>
+    <t>ALWAYS TOA HIG NOCHES TRANQ SUAVE X 16 U</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HEAD &amp; SHO SHA 3 EN 1 180 ML </t>
+  </si>
+  <si>
+    <t xml:space="preserve">GILLETTE DEP FEM VENUS CART BREEZE X 2 N </t>
+  </si>
+  <si>
+    <t xml:space="preserve">GILLETTE AFE CUERPO X2 MAQ </t>
+  </si>
+  <si>
+    <t>GILLETTE DEP FEM VENUS INTIMA X2 MAQ AFE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FOAMY AFE MENTOL 175 GR ESP </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALWAYS TOA HIG XTRA TRIPLE PROTEC NOCHE SECA X 16 U </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PAMPERS PAÑ BEBE BABYSAN XG X 8 </t>
+  </si>
+  <si>
+    <t>PAMPERS PAÑ BEBE CONFORT SEC XXGDE 08 PADS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GILLETTE AFE MAQ DERMA PROTECCION X 2 </t>
+  </si>
+  <si>
+    <t>ALWAYS TOA HIG NOCHE TRANQ SECA C/A X 8 U</t>
+  </si>
+  <si>
+    <t>HEAD &amp; SHO SHA PURIFICAC CAPILAR 180 ML</t>
+  </si>
+  <si>
+    <t>VICK VAPORUB pote x 50 g</t>
+  </si>
+  <si>
+    <t>GILLETTE AFE MACH3 BASE 3 CART HOJ</t>
+  </si>
+  <si>
+    <t>ALWAYS TOA HIG MAXI PROTEC SUAVE X 16 U</t>
+  </si>
+  <si>
+    <t>ALWAYS TOA HIG BASICA PLUS SUAV C/ALA X 16 U</t>
+  </si>
+  <si>
+    <t>FOAMY AFE PIEL SENSIBLE 312 GR ESP</t>
+  </si>
+  <si>
+    <t>ALWAYS TOA HIG MAXI PROTEC DIA SECA C/A X 16 U</t>
+  </si>
+  <si>
+    <t>HEAD &amp; SHO SHA MANZANA FRESH 180 ML</t>
+  </si>
+  <si>
+    <t>HEAD &amp; SHO SHAMPOO NUTRICION PROFUNDA X 180 ML</t>
+  </si>
+  <si>
+    <t>GILLETTE AFE MACH3 CARBONO CART X 2</t>
+  </si>
+  <si>
+    <t>VICK VITAPYRENA FORTE Miel/Limón sob.x 50 x 5g</t>
+  </si>
+  <si>
+    <t>PANTENE SHA PRO-V MAX RESTAURAC 200 ML</t>
+  </si>
+  <si>
+    <t>ALWAYS TOA HIG MAXI PROTEC SUAVE X 8 U</t>
+  </si>
+  <si>
+    <t>ALWAYS TOA HIG XTRA TRIPLE PROTEC NOCHE SUAVE X 16</t>
   </si>
 </sst>
 </file>
@@ -74,10 +362,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -358,19 +648,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="E107" sqref="E107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.7109375" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2">
+      <c r="A1" s="4">
         <v>7798339190105</v>
       </c>
       <c r="B1" s="2" t="s">
@@ -378,7 +668,7 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2">
+      <c r="A2" s="3">
         <v>7793008017387</v>
       </c>
       <c r="B2" t="s">
@@ -386,7 +676,7 @@
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3">
+      <c r="A3" s="3">
         <v>7509546692197</v>
       </c>
       <c r="B3" t="s">
@@ -394,11 +684,779 @@
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4">
+      <c r="A4" s="3">
         <v>8429420152120</v>
       </c>
       <c r="B4" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>7891150087477</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>7794728011273</v>
+      </c>
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>7794728013741</v>
+      </c>
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>7794728011174</v>
+      </c>
+      <c r="B8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>7794728001519</v>
+      </c>
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>7794728012553</v>
+      </c>
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>7794728013840</v>
+      </c>
+      <c r="B11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <v>7794728013727</v>
+      </c>
+      <c r="B12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
+        <v>7790396104101</v>
+      </c>
+      <c r="B13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
+        <v>7790396103081</v>
+      </c>
+      <c r="B14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
+        <v>7790396103074</v>
+      </c>
+      <c r="B15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
+        <v>8411061063095</v>
+      </c>
+      <c r="B16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
+        <v>7798422000366</v>
+      </c>
+      <c r="B17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
+        <v>8411061819623</v>
+      </c>
+      <c r="B18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="3">
+        <v>7798422000359</v>
+      </c>
+      <c r="B19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="3">
+        <v>7798158482474</v>
+      </c>
+      <c r="B20" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="3">
+        <v>7798034748601</v>
+      </c>
+      <c r="B21" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="3">
+        <v>7798034740612</v>
+      </c>
+      <c r="B22" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="3">
+        <v>7798034741787</v>
+      </c>
+      <c r="B23" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="3">
+        <v>7798034740346</v>
+      </c>
+      <c r="B24" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="3">
+        <v>7798034749240</v>
+      </c>
+      <c r="B25" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="3">
+        <v>8429420226265</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="3">
+        <v>8429420154186</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="3">
+        <v>8429420248977</v>
+      </c>
+      <c r="B28" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="3">
+        <v>8429420125117</v>
+      </c>
+      <c r="B29" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="3">
+        <v>8429420195950</v>
+      </c>
+      <c r="B30" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="3">
+        <v>7891010254773</v>
+      </c>
+      <c r="B31" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="3">
+        <v>7891010254780</v>
+      </c>
+      <c r="B32" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="3">
+        <v>7790010002653</v>
+      </c>
+      <c r="B33" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="3">
+        <v>7790010002615</v>
+      </c>
+      <c r="B34" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="3">
+        <v>7790010002639</v>
+      </c>
+      <c r="B35" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="3">
+        <v>7891010254803</v>
+      </c>
+      <c r="B36" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="3">
+        <v>7891010254766</v>
+      </c>
+      <c r="B37" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="3">
+        <v>7790010003063</v>
+      </c>
+      <c r="B38" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="3">
+        <v>7891010254797</v>
+      </c>
+      <c r="B39" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="3">
+        <v>7798029233761</v>
+      </c>
+      <c r="B40" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="3">
+        <v>7891010254452</v>
+      </c>
+      <c r="B41" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="3">
+        <v>7790010002769</v>
+      </c>
+      <c r="B42" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="3">
+        <v>7798029233754</v>
+      </c>
+      <c r="B43" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="3">
+        <v>7790010002943</v>
+      </c>
+      <c r="B44" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="3">
+        <v>7790010002813</v>
+      </c>
+      <c r="B45" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="3">
+        <v>7790010002660</v>
+      </c>
+      <c r="B46" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" s="3">
+        <v>7790010002776</v>
+      </c>
+      <c r="B47" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" s="3">
+        <v>70501051054</v>
+      </c>
+      <c r="B48" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="3">
+        <v>7790010002936</v>
+      </c>
+      <c r="B49" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" s="3">
+        <v>7790010616805</v>
+      </c>
+      <c r="B50" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" s="3">
+        <v>7891010009250</v>
+      </c>
+      <c r="B51" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" s="3">
+        <v>7790010002851</v>
+      </c>
+      <c r="B52" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" s="3">
+        <v>7891010251048</v>
+      </c>
+      <c r="B53" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" s="3">
+        <v>7790010003247</v>
+      </c>
+      <c r="B54" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" s="3">
+        <v>7506339334357</v>
+      </c>
+      <c r="B55" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" s="3">
+        <v>7506309846330</v>
+      </c>
+      <c r="B56" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" s="3">
+        <v>7500435170932</v>
+      </c>
+      <c r="B57" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" s="3">
+        <v>7702018874781</v>
+      </c>
+      <c r="B58" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" s="3">
+        <v>7500435185271</v>
+      </c>
+      <c r="B59" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" s="3">
+        <v>7500435193146</v>
+      </c>
+      <c r="B60" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" s="3">
+        <v>7500435188975</v>
+      </c>
+      <c r="B61" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" s="3">
+        <v>7500435189415</v>
+      </c>
+      <c r="B62" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" s="3">
+        <v>7500435198097</v>
+      </c>
+      <c r="B63" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" s="3">
+        <v>7500435185196</v>
+      </c>
+      <c r="B64" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" s="3">
+        <v>7500435228657</v>
+      </c>
+      <c r="B65" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" s="3">
+        <v>7500435178938</v>
+      </c>
+      <c r="B66" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" s="3">
+        <v>7500435191821</v>
+      </c>
+      <c r="B67" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" s="3">
+        <v>7702018983872</v>
+      </c>
+      <c r="B68" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" s="3">
+        <v>7500435206402</v>
+      </c>
+      <c r="B69" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" s="3">
+        <v>7500435110662</v>
+      </c>
+      <c r="B70" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" s="3">
+        <v>7500435219648</v>
+      </c>
+      <c r="B71" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" s="3">
+        <v>7500435178853</v>
+      </c>
+      <c r="B72" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" s="3">
+        <v>7500435178907</v>
+      </c>
+      <c r="B73" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" s="3">
+        <v>7500435185219</v>
+      </c>
+      <c r="B74" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75" s="3">
+        <v>7500435178686</v>
+      </c>
+      <c r="B75" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76" s="3">
+        <v>7500435178884</v>
+      </c>
+      <c r="B76" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77" s="3">
+        <v>7500435206464</v>
+      </c>
+      <c r="B77" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78" s="3">
+        <v>7500435191838</v>
+      </c>
+      <c r="B78" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79" s="3">
+        <v>7500435178570</v>
+      </c>
+      <c r="B79" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80" s="3">
+        <v>7500435203975</v>
+      </c>
+      <c r="B80" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81" s="3">
+        <v>7702018053476</v>
+      </c>
+      <c r="B81" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82" s="3">
+        <v>7500435229494</v>
+      </c>
+      <c r="B82" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83" s="3">
+        <v>7500435228640</v>
+      </c>
+      <c r="B83" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84" s="3">
+        <v>7500435188982</v>
+      </c>
+      <c r="B84" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85" s="3">
+        <v>7500435173186</v>
+      </c>
+      <c r="B85" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86" s="3">
+        <v>7500435178914</v>
+      </c>
+      <c r="B86" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87" s="3">
+        <v>7500435206655</v>
+      </c>
+      <c r="B87" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88" s="3">
+        <v>7506309897813</v>
+      </c>
+      <c r="B88" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89" s="3">
+        <v>7500435198103</v>
+      </c>
+      <c r="B89" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90" s="3">
+        <v>7500435178846</v>
+      </c>
+      <c r="B90" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91" s="3">
+        <v>7500435204668</v>
+      </c>
+      <c r="B91" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92" s="3">
+        <v>7500435219655</v>
+      </c>
+      <c r="B92" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A93" s="3">
+        <v>7500435178860</v>
+      </c>
+      <c r="B93" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A94" s="3">
+        <v>7500435206570</v>
+      </c>
+      <c r="B94" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A95" s="3">
+        <v>7500435206709</v>
+      </c>
+      <c r="B95" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A96" s="3">
+        <v>7500435225366</v>
+      </c>
+      <c r="B96" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A97" s="3">
+        <v>7506309892795</v>
+      </c>
+      <c r="B97" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A98" s="3">
+        <v>7500435211819</v>
+      </c>
+      <c r="B98" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A99" s="3">
+        <v>7500435193078</v>
+      </c>
+      <c r="B99" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A100" s="3">
+        <v>7500435229517</v>
+      </c>
+      <c r="B100" t="s">
+        <v>99</v>
       </c>
     </row>
   </sheetData>
